--- a/data/pca/factorExposure/factorExposure_2012-08-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002932713198022729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001905571453677179</v>
+      </c>
+      <c r="C2">
+        <v>0.02852601786870949</v>
+      </c>
+      <c r="D2">
+        <v>-0.004783880498723283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2.159785431075142e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006649769623640572</v>
+      </c>
+      <c r="C4">
+        <v>0.08432487649418607</v>
+      </c>
+      <c r="D4">
+        <v>-0.06570841799325404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005111734981042934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0148409722326345</v>
+      </c>
+      <c r="C6">
+        <v>0.1184954005245851</v>
+      </c>
+      <c r="D6">
+        <v>-0.01840290184382502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0002097253192728043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005062554826981026</v>
+      </c>
+      <c r="C7">
+        <v>0.05983834599559096</v>
+      </c>
+      <c r="D7">
+        <v>-0.03136320121533249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005201088617693629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004892043370944827</v>
+      </c>
+      <c r="C8">
+        <v>0.0359890044876043</v>
+      </c>
+      <c r="D8">
+        <v>-0.03711550799998652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.000570633735887661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.006009069704161702</v>
+      </c>
+      <c r="C9">
+        <v>0.07353306160265038</v>
+      </c>
+      <c r="D9">
+        <v>-0.07077661292631007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2.167481324781187e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001567925300404146</v>
+      </c>
+      <c r="C10">
+        <v>0.05004659597017281</v>
+      </c>
+      <c r="D10">
+        <v>0.1857279410726126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0004527608880096165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006545989635530778</v>
+      </c>
+      <c r="C11">
+        <v>0.08157040610822339</v>
+      </c>
+      <c r="D11">
+        <v>-0.06676677735871062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006901576934088313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004782611097778338</v>
+      </c>
+      <c r="C12">
+        <v>0.06622327343720887</v>
+      </c>
+      <c r="D12">
+        <v>-0.05049009502863237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002260380954849454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009521072719762163</v>
+      </c>
+      <c r="C13">
+        <v>0.07103413056608522</v>
+      </c>
+      <c r="D13">
+        <v>-0.05689759969594989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001859903469908569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008771471814920309</v>
+      </c>
+      <c r="C14">
+        <v>0.04373320575495381</v>
+      </c>
+      <c r="D14">
+        <v>-0.01289025285981943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00162159514593288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00632797469141156</v>
+      </c>
+      <c r="C15">
+        <v>0.0409985107652578</v>
+      </c>
+      <c r="D15">
+        <v>-0.02536419860271456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-3.488100662934371e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005506079731645972</v>
+      </c>
+      <c r="C16">
+        <v>0.06538157039322946</v>
+      </c>
+      <c r="D16">
+        <v>-0.05698252976285497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002561040678519682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009048351541040148</v>
+      </c>
+      <c r="C20">
+        <v>0.06526466896987464</v>
+      </c>
+      <c r="D20">
+        <v>-0.04943846362615736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005338543097987877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009519841729019714</v>
+      </c>
+      <c r="C21">
+        <v>0.02205876852537648</v>
+      </c>
+      <c r="D21">
+        <v>-0.04098846959142646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02051150383326102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007330933551039326</v>
+      </c>
+      <c r="C22">
+        <v>0.08668259915974411</v>
+      </c>
+      <c r="D22">
+        <v>-0.1179244145134537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02017303529607501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007036423737018927</v>
+      </c>
+      <c r="C23">
+        <v>0.08709251025389213</v>
+      </c>
+      <c r="D23">
+        <v>-0.1190261743056293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001084967435099099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006329045240550881</v>
+      </c>
+      <c r="C24">
+        <v>0.07822275989578314</v>
+      </c>
+      <c r="D24">
+        <v>-0.06585271573363558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002695373955350037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003827760531822934</v>
+      </c>
+      <c r="C25">
+        <v>0.0790913069127768</v>
+      </c>
+      <c r="D25">
+        <v>-0.06372387749280439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001281957261325035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00398844144589645</v>
+      </c>
+      <c r="C26">
+        <v>0.04083829824645335</v>
+      </c>
+      <c r="D26">
+        <v>-0.01943111414846525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007573596607654465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002613539124498219</v>
+      </c>
+      <c r="C28">
+        <v>0.1003637435282583</v>
+      </c>
+      <c r="D28">
+        <v>0.3268597341922549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008824687236754353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003492918615718671</v>
+      </c>
+      <c r="C29">
+        <v>0.04761056631911607</v>
+      </c>
+      <c r="D29">
+        <v>-0.01013511424563785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002882647053918492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009747852707763403</v>
+      </c>
+      <c r="C30">
+        <v>0.1424623063999441</v>
+      </c>
+      <c r="D30">
+        <v>-0.1071143980587631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001837428470070544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006355721882195152</v>
+      </c>
+      <c r="C31">
+        <v>0.04433613147641999</v>
+      </c>
+      <c r="D31">
+        <v>-0.02879835883218015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005360855239973449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004644105151822889</v>
+      </c>
+      <c r="C32">
+        <v>0.03854944153596816</v>
+      </c>
+      <c r="D32">
+        <v>-0.01669643540480465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0001722774230778898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009070488395921917</v>
+      </c>
+      <c r="C33">
+        <v>0.0914544535452108</v>
+      </c>
+      <c r="D33">
+        <v>-0.06189331474081511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0008708262987218946</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004868839829971025</v>
+      </c>
+      <c r="C34">
+        <v>0.05924505532861999</v>
+      </c>
+      <c r="D34">
+        <v>-0.0577280323611904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001780735332825185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005117157964335938</v>
+      </c>
+      <c r="C35">
+        <v>0.04117670828245821</v>
+      </c>
+      <c r="D35">
+        <v>-0.01379674911810712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004771792510767045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001427410983415452</v>
+      </c>
+      <c r="C36">
+        <v>0.02580913152611496</v>
+      </c>
+      <c r="D36">
+        <v>-0.0189753639735695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002554704609901082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008791162714445083</v>
+      </c>
+      <c r="C38">
+        <v>0.04055629893347628</v>
+      </c>
+      <c r="D38">
+        <v>-0.01214908471176552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01104178586137518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001171381868650602</v>
+      </c>
+      <c r="C39">
+        <v>0.1143428235760168</v>
+      </c>
+      <c r="D39">
+        <v>-0.08276381319878851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004424974269142096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002921493461569634</v>
+      </c>
+      <c r="C40">
+        <v>0.09204880763841307</v>
+      </c>
+      <c r="D40">
+        <v>-0.01478374724263199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002433196179623788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007715598375026737</v>
+      </c>
+      <c r="C41">
+        <v>0.04231105061477228</v>
+      </c>
+      <c r="D41">
+        <v>-0.04391886596838343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002043390379148123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00415362837671916</v>
+      </c>
+      <c r="C43">
+        <v>0.05464243849551701</v>
+      </c>
+      <c r="D43">
+        <v>-0.0266559141430576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007833734548614435</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002342278102606791</v>
+      </c>
+      <c r="C44">
+        <v>0.1045180094164028</v>
+      </c>
+      <c r="D44">
+        <v>-0.06264509730637326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001888929688456769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001200449620735308</v>
+      </c>
+      <c r="C46">
+        <v>0.03384663792765084</v>
+      </c>
+      <c r="D46">
+        <v>-0.03427233585183155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002593020966970601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.003246849330631468</v>
+      </c>
+      <c r="C47">
+        <v>0.03506105744651993</v>
+      </c>
+      <c r="D47">
+        <v>-0.01941555383367291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004687973524302541</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007849872823987318</v>
+      </c>
+      <c r="C48">
+        <v>0.03413597983731088</v>
+      </c>
+      <c r="D48">
+        <v>-0.02618937822167764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005018248581055527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01861907437913627</v>
+      </c>
+      <c r="C49">
+        <v>0.186930240886738</v>
+      </c>
+      <c r="D49">
+        <v>-0.0116740715306682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002832392362775241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004267641845499752</v>
+      </c>
+      <c r="C50">
+        <v>0.04310921414082803</v>
+      </c>
+      <c r="D50">
+        <v>-0.03731853034504706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001750966596945493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.0038635185476411</v>
+      </c>
+      <c r="C51">
+        <v>0.02728376378335935</v>
+      </c>
+      <c r="D51">
+        <v>-0.02293875378061299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008368840439040631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02211767742577455</v>
+      </c>
+      <c r="C53">
+        <v>0.1723085292034044</v>
+      </c>
+      <c r="D53">
+        <v>-0.01944737990044578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003194613421288317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009587317836029771</v>
+      </c>
+      <c r="C54">
+        <v>0.05751413167729311</v>
+      </c>
+      <c r="D54">
+        <v>-0.03973982774191086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001883204412557327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01037672141459062</v>
+      </c>
+      <c r="C55">
+        <v>0.1089269257120381</v>
+      </c>
+      <c r="D55">
+        <v>-0.03260015127224723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008644046744185431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02176505410793728</v>
+      </c>
+      <c r="C56">
+        <v>0.1755221995189924</v>
+      </c>
+      <c r="D56">
+        <v>-0.01290747114216048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0009519225154584418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01698162206622825</v>
+      </c>
+      <c r="C58">
+        <v>0.1066836718626685</v>
+      </c>
+      <c r="D58">
+        <v>-0.05869887528695059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003332556280866392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009465211394008721</v>
+      </c>
+      <c r="C59">
+        <v>0.1658570794590615</v>
+      </c>
+      <c r="D59">
+        <v>0.3485574177110993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00790127692135506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02658829660699407</v>
+      </c>
+      <c r="C60">
+        <v>0.2251810028754447</v>
+      </c>
+      <c r="D60">
+        <v>-0.0180183216927597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01032561111800231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001772203922935801</v>
+      </c>
+      <c r="C61">
+        <v>0.09591318930242745</v>
+      </c>
+      <c r="D61">
+        <v>-0.05946467728230167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1499360408645266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1538479026901358</v>
+      </c>
+      <c r="C62">
+        <v>0.1026411959978844</v>
+      </c>
+      <c r="D62">
+        <v>-0.01670955801444183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0006991648496265578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006531954152412488</v>
+      </c>
+      <c r="C63">
+        <v>0.05435520153917023</v>
+      </c>
+      <c r="D63">
+        <v>-0.03220808498333062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01017428975125037</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01737461789545465</v>
+      </c>
+      <c r="C64">
+        <v>0.1081057704034977</v>
+      </c>
+      <c r="D64">
+        <v>-0.05234037074398559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007831604336909319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0177518000854948</v>
+      </c>
+      <c r="C65">
+        <v>0.1194741712154505</v>
+      </c>
+      <c r="D65">
+        <v>-0.01910418007412498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001892506657465339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0132239165005915</v>
+      </c>
+      <c r="C66">
+        <v>0.1625399882221759</v>
+      </c>
+      <c r="D66">
+        <v>-0.1152755938454929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005771083044819539</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0153312510560565</v>
+      </c>
+      <c r="C67">
+        <v>0.07326359856874336</v>
+      </c>
+      <c r="D67">
+        <v>-0.0249820753458175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005223206451846592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004091900886920354</v>
+      </c>
+      <c r="C68">
+        <v>0.08137535427645656</v>
+      </c>
+      <c r="D68">
+        <v>0.2613520949812478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002862960436880052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006420454517856562</v>
+      </c>
+      <c r="C69">
+        <v>0.05183065792002639</v>
+      </c>
+      <c r="D69">
+        <v>-0.03543308845344161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001522325553361714</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.00263643345672725</v>
+      </c>
+      <c r="C70">
+        <v>0.008830094540443699</v>
+      </c>
+      <c r="D70">
+        <v>0.001279834335734045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002223716450416961</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004342432800154612</v>
+      </c>
+      <c r="C71">
+        <v>0.08614703342524842</v>
+      </c>
+      <c r="D71">
+        <v>0.3026571860687725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00464010250578831</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01833304194318573</v>
+      </c>
+      <c r="C72">
+        <v>0.1571635302716543</v>
+      </c>
+      <c r="D72">
+        <v>-0.008092504844263288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009186649474067837</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03147517465975017</v>
+      </c>
+      <c r="C73">
+        <v>0.2814425688627404</v>
+      </c>
+      <c r="D73">
+        <v>-0.05613090898479704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005921886909096221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001933432992369834</v>
+      </c>
+      <c r="C74">
+        <v>0.1035908729046015</v>
+      </c>
+      <c r="D74">
+        <v>-0.03022807235511266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0003761191183482976</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01229128038942429</v>
+      </c>
+      <c r="C75">
+        <v>0.1199616380943857</v>
+      </c>
+      <c r="D75">
+        <v>-0.02615516422258011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0105330190275912</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02245690546825337</v>
+      </c>
+      <c r="C76">
+        <v>0.146849796697618</v>
+      </c>
+      <c r="D76">
+        <v>-0.05517189517545061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.005675621164138748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02113606870254237</v>
+      </c>
+      <c r="C77">
+        <v>0.1098982185372739</v>
+      </c>
+      <c r="D77">
+        <v>-0.04619291712411121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003853610130031903</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01441047537442309</v>
+      </c>
+      <c r="C78">
+        <v>0.1008213579720306</v>
+      </c>
+      <c r="D78">
+        <v>-0.08040904248040309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02718595962667566</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0394584105545073</v>
+      </c>
+      <c r="C79">
+        <v>0.1571506954659194</v>
+      </c>
+      <c r="D79">
+        <v>-0.02812387411976205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006742248909220957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009899284069847195</v>
+      </c>
+      <c r="C80">
+        <v>0.03946051846440109</v>
+      </c>
+      <c r="D80">
+        <v>-0.03060556374774095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004854518243258654</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01671545537002793</v>
+      </c>
+      <c r="C81">
+        <v>0.1310374738589095</v>
+      </c>
+      <c r="D81">
+        <v>-0.03550502622268822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007627559434863274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02015827745922177</v>
+      </c>
+      <c r="C82">
+        <v>0.1364440934530874</v>
+      </c>
+      <c r="D82">
+        <v>-0.03552922362472047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003571958719109381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01230621530239865</v>
+      </c>
+      <c r="C83">
+        <v>0.06372610035070908</v>
+      </c>
+      <c r="D83">
+        <v>-0.04601043601959523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004182587972463517</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006720854853632513</v>
+      </c>
+      <c r="C84">
+        <v>0.03511383211286299</v>
+      </c>
+      <c r="D84">
+        <v>-0.01486540094436814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01856801434176526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02922634170665159</v>
+      </c>
+      <c r="C85">
+        <v>0.1243215690413791</v>
+      </c>
+      <c r="D85">
+        <v>-0.03793969727658831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002909566434894598</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00382724259443013</v>
+      </c>
+      <c r="C86">
+        <v>0.05070085734382888</v>
+      </c>
+      <c r="D86">
+        <v>-0.02478362468110784</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0009702825648388436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01209942146984724</v>
+      </c>
+      <c r="C87">
+        <v>0.128530431381551</v>
+      </c>
+      <c r="D87">
+        <v>-0.07098791785023249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008707552918148473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002826305851486548</v>
+      </c>
+      <c r="C88">
+        <v>0.06386823159181354</v>
+      </c>
+      <c r="D88">
+        <v>-0.02822054072019046</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01217581530483226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003095933162885212</v>
+      </c>
+      <c r="C89">
+        <v>0.1312540066265151</v>
+      </c>
+      <c r="D89">
+        <v>0.3220693242960689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002886148560448311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005271467410766595</v>
+      </c>
+      <c r="C90">
+        <v>0.1140616629641341</v>
+      </c>
+      <c r="D90">
+        <v>0.3154645148820956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002373227878544863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01157620714631882</v>
+      </c>
+      <c r="C91">
+        <v>0.09873686517271672</v>
+      </c>
+      <c r="D91">
+        <v>-0.02671895061958425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006399957706680151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007075633610846415</v>
+      </c>
+      <c r="C92">
+        <v>0.1256452779911885</v>
+      </c>
+      <c r="D92">
+        <v>0.3263019866044311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002115933422849349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003154029705362081</v>
+      </c>
+      <c r="C93">
+        <v>0.1015972449629159</v>
+      </c>
+      <c r="D93">
+        <v>0.3013569243681021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01037705340392505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02267429048685129</v>
+      </c>
+      <c r="C94">
+        <v>0.1387360298944321</v>
+      </c>
+      <c r="D94">
+        <v>-0.05117976049338394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006718978494069056</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0165662924337397</v>
+      </c>
+      <c r="C95">
+        <v>0.1215138961167363</v>
+      </c>
+      <c r="D95">
+        <v>-0.06855946524621465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01752131049412295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03791121071446846</v>
+      </c>
+      <c r="C97">
+        <v>0.2221781157804688</v>
+      </c>
+      <c r="D97">
+        <v>0.004315396764321183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01129586387253033</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04002659669431244</v>
+      </c>
+      <c r="C98">
+        <v>0.2622152463540893</v>
+      </c>
+      <c r="D98">
+        <v>-0.03306210897967553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865286524884007</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9802334007254749</v>
+      </c>
+      <c r="C99">
+        <v>-0.1236155535590923</v>
+      </c>
+      <c r="D99">
+        <v>0.02568062019826372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009064996729533514</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003482867264148412</v>
+      </c>
+      <c r="C101">
+        <v>0.04779075551197796</v>
+      </c>
+      <c r="D101">
+        <v>-0.01078478107231455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
